--- a/Assets/SceneData/MasterData/Editor/ItemData.xlsx
+++ b/Assets/SceneData/MasterData/Editor/ItemData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>アイテムID</t>
   </si>
@@ -25,55 +25,73 @@
     <t>i00001</t>
   </si>
   <si>
-    <t>金</t>
-  </si>
-  <si>
-    <t>金です。</t>
+    <t>ガーネット</t>
+  </si>
+  <si>
+    <t>実りの象徴とされ、成功へと導いてくれると言われている。比較的安価で取引される。</t>
   </si>
   <si>
     <t>i00002</t>
   </si>
   <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>testd2</t>
+    <t>アメジスト</t>
+  </si>
+  <si>
+    <t>愛の守護石と呼ばれている。色味と透明度、傷の有無によって値段が変わる。</t>
   </si>
   <si>
     <t>i00003</t>
   </si>
   <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>testd3</t>
+    <t>アクアマリン</t>
+  </si>
+  <si>
+    <t>別名天使の石と呼ばれている。青色が濃いほど評価が高く、次いで透明度も評価のポイントである。</t>
   </si>
   <si>
     <t>i00004</t>
   </si>
   <si>
-    <t>test4</t>
-  </si>
-  <si>
-    <t>testd4</t>
+    <t>ダイヤモンド</t>
+  </si>
+  <si>
+    <t>最も硬い宝石、４Cと呼ばれる品質評価で価格が変化する。</t>
   </si>
   <si>
     <t>i00005</t>
   </si>
   <si>
-    <t>test5</t>
-  </si>
-  <si>
-    <t>testd5</t>
+    <t>エメラルド</t>
+  </si>
+  <si>
+    <t>叡智を象徴とする石と知られている。色の濃さで価値は変わるが、濃すぎると逆に評価が下がってしまう。</t>
   </si>
   <si>
     <t>i00006</t>
   </si>
   <si>
+    <t>ルビー</t>
+  </si>
+  <si>
+    <t>権力の象徴と扱われてきた石。ノーヒート（非加熱）の場合、さらに価格が上がる。</t>
+  </si>
+  <si>
     <t>i00007</t>
   </si>
   <si>
+    <t>サファイヤ</t>
+  </si>
+  <si>
+    <t>惰性に流されないようにサポートをしてくれる石として知られている。ノーヒート（非加熱）の場合さらに価格が上がる。</t>
+  </si>
+  <si>
     <t>i00008</t>
+  </si>
+  <si>
+    <t>トパーズ</t>
+  </si>
+  <si>
+    <t>誠実という石言葉を持っている。流通量が多いためそこまで高くは無い。</t>
   </si>
   <si>
     <t>i00009</t>
@@ -128,12 +146,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -153,6 +174,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="29.43"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -172,7 +196,7 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -183,7 +207,7 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -194,7 +218,7 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -205,7 +229,7 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -216,7 +240,7 @@
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -224,50 +248,68 @@
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
